--- a/Base2.xlsx
+++ b/Base2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desenvolvimento\html\organograma\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desenvolvimento\html\organograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA764CD-C622-4596-8965-AFF22865EEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0509DCAE-392D-4971-9D75-5ECBCE35D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A664588-B050-4598-9AE6-E198E296B465}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="278">
   <si>
     <t>DescricaoCargo</t>
   </si>
@@ -748,6 +748,132 @@
   </si>
   <si>
     <t>Líder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPAR </t>
+  </si>
+  <si>
+    <t>SARTILHO GONCALVES DA LUZ</t>
+  </si>
+  <si>
+    <t>OP. AGR DEF</t>
+  </si>
+  <si>
+    <t>ALEXANDRE GOUVEIA SOUZA</t>
+  </si>
+  <si>
+    <t>MOTORISTA</t>
+  </si>
+  <si>
+    <t>MOT AGR</t>
+  </si>
+  <si>
+    <t>EDINEI CARRIJO DA SILVA</t>
+  </si>
+  <si>
+    <t>OP. AGR F01</t>
+  </si>
+  <si>
+    <t>JOSEMAR DE JESUS DAMASCENO</t>
+  </si>
+  <si>
+    <t>OPERADOR MAQ MANTENEDOR AGR</t>
+  </si>
+  <si>
+    <t>MARIANO SANTOS RIBEIRO</t>
+  </si>
+  <si>
+    <t>EVANILDO CASTILHO PEREIRA</t>
+  </si>
+  <si>
+    <t>GESTAO ARMAZEM</t>
+  </si>
+  <si>
+    <t>RENAM AUGUSTO PEREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>NILTON CESAR COSTA DA SILVA</t>
+  </si>
+  <si>
+    <t>APOIO ARMAZEM</t>
+  </si>
+  <si>
+    <t>DIONISCLAY BENTO CABRAL</t>
+  </si>
+  <si>
+    <t>RAY RIBEIRO CAVALCANTE</t>
+  </si>
+  <si>
+    <t>CICERO ALVES DA SILVA</t>
+  </si>
+  <si>
+    <t>ELISVAN CARLOS DE JESUS</t>
+  </si>
+  <si>
+    <t>VINICIUS TEODORO MICHELS</t>
+  </si>
+  <si>
+    <t>EVARISTO CARDOSO SOUZA</t>
+  </si>
+  <si>
+    <t>GERENTE AGR 3K A 7K HA</t>
+  </si>
+  <si>
+    <t>ALISSON PEREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t>HYSADORA BERNARDES DE SOUZA</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>LIANE JACOMO DE SOUSA</t>
+  </si>
+  <si>
+    <t>MAYARA SILVA PIRES</t>
+  </si>
+  <si>
+    <t>EDUARDO ROSA TAVARES</t>
+  </si>
+  <si>
+    <t>RAINON RIBEIRO CAVALCANTE</t>
+  </si>
+  <si>
+    <t>ALISSON BRUNO CARRIJO SOUZA</t>
+  </si>
+  <si>
+    <t>EDMARCIO CARRIJO DA SILVA</t>
+  </si>
+  <si>
+    <t>ELSON CLAUDINO DA SILVA</t>
+  </si>
+  <si>
+    <t>ANTONIO FERREIRA</t>
+  </si>
+  <si>
+    <t>NATALINA GONCALVES DOS SANTOS FERREIRA</t>
+  </si>
+  <si>
+    <t>HIGO CARRIJO DA SILVA</t>
+  </si>
+  <si>
+    <t>VIGILANTE</t>
+  </si>
+  <si>
+    <t>VAGUINER SCARPETA</t>
+  </si>
+  <si>
+    <t>GILSON DA SILVA FERREIRA</t>
+  </si>
+  <si>
+    <t>JOAO CARLOS OLIVEIRA DE FREITAS</t>
+  </si>
+  <si>
+    <t>WANDERSON DE FREITAS RIBEIRO</t>
+  </si>
+  <si>
+    <t>DANIELE SILVA VIEIRA</t>
   </si>
 </sst>
 </file>
@@ -831,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -856,9 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1202,13 +1325,13 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomRight" activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1343,7 @@
     <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2215,7 +2338,7 @@
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2631,7 +2754,7 @@
       <c r="A55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2813,7 +2936,7 @@
       <c r="A62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -3879,7 +4002,7 @@
       <c r="A103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C103" s="8" t="s">
@@ -4451,7 +4574,7 @@
       <c r="A125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -4529,7 +4652,7 @@
       <c r="A128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -4864,8 +4987,718 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="H141" s="6"/>
+      <c r="A141" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H140" xr:uid="{DC27A243-892F-496F-ACD1-7037A675613C}"/>

--- a/Base2.xlsx
+++ b/Base2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desenvolvimento\html\organograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\html\organograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850993AA-2248-46AF-A5F4-18627216AFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F25F06-A89C-4188-8440-7BE7455FA61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A664588-B050-4598-9AE6-E198E296B465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9A664588-B050-4598-9AE6-E198E296B465}"/>
   </bookViews>
   <sheets>
     <sheet name="ListaColaboradores" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ListaColaboradores!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ListaColaboradores!$A$1:$H$430</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2453,7 +2453,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E9:E10"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13466,6 +13466,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H430" xr:uid="{DC27A243-892F-496F-ACD1-7037A675613C}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
